--- a/biology/Zoologie/Conus_brianhayesi/Conus_brianhayesi.xlsx
+++ b/biology/Zoologie/Conus_brianhayesi/Conus_brianhayesi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus brianhayesi est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La taille de la coquille varie entre 17 mm et 25 mm.
 </t>
@@ -543,11 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce marine est présente au nord du Transkei, en Afrique du Sud.
-Niveau de risque d’extinction de l’espèce
-Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce récemment décrite est endémique à l'Afrique du Sud et se trouve entre Coffee Bay et Margate. Quelques spécimens ont également été trouvés au sud jusqu'à East-London et au nord jusqu'à Kelso. Cette espèce se trouve en eaux profondes, dans une zone relativement restreinte, mais sa petite taille l'empêche d'être draguée, et il existe des zones protégées dans son aire de répartition qui sont encore très naturelles. Cette espèce est considérée comme étant de préoccupation mineure[1].
 </t>
         </is>
       </c>
@@ -573,15 +587,92 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Niveau de risque d’extinction de l’espèce</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce récemment décrite est endémique à l'Afrique du Sud et se trouve entre Coffee Bay et Margate. Quelques spécimens ont également été trouvés au sud jusqu'à East-London et au nord jusqu'à Kelso. Cette espèce se trouve en eaux profondes, dans une zone relativement restreinte, mais sa petite taille l'empêche d'être draguée, et il existe des zones protégées dans son aire de répartition qui sont encore très naturelles. Cette espèce est considérée comme étant de préoccupation mineure.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_brianhayesi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_brianhayesi</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Publication originale
-L'espèce Conus brianhayesi a été décrite pour la première fois en 2001 par le malacologiste allemand Werner Korn[2].
-Synonymes
-Conasprella brianhayesi (Korn, 2001) · non accepté
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus brianhayesi a été décrite pour la première fois en 2001 par le malacologiste allemand Werner Korn.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conus_brianhayesi</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_brianhayesi</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Conasprella brianhayesi (Korn, 2001) · non accepté
 Conus (Sciteconus) brianhayesi Korn, 2001 · appellation alternative
 Conus hayesi Korn, 2000 · non accepté
 Sciteconus brianhayesi (Korn, 2001) · non accepté</t>
